--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55096429074825</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H2">
-        <v>1.55096429074825</v>
+        <v>6.135341</v>
       </c>
       <c r="I2">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J2">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51624470470014</v>
+        <v>2.418393</v>
       </c>
       <c r="N2">
-        <v>1.51624470470014</v>
+        <v>7.255179</v>
       </c>
       <c r="O2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="P2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="Q2">
-        <v>2.351641393026042</v>
+        <v>4.945888575671001</v>
       </c>
       <c r="R2">
-        <v>2.351641393026042</v>
+        <v>44.512997181039</v>
       </c>
       <c r="S2">
-        <v>0.01837346294936752</v>
+        <v>0.0331864170628394</v>
       </c>
       <c r="T2">
-        <v>0.01837346294936752</v>
+        <v>0.0331864170628394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55096429074825</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H3">
-        <v>1.55096429074825</v>
+        <v>6.135341</v>
       </c>
       <c r="I3">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J3">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.939889347266099</v>
+        <v>10.11799233333333</v>
       </c>
       <c r="N3">
-        <v>9.939889347266099</v>
+        <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="P3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="Q3">
-        <v>15.41641343159865</v>
+        <v>20.69244440012856</v>
       </c>
       <c r="R3">
-        <v>15.41641343159865</v>
+        <v>186.231999601157</v>
       </c>
       <c r="S3">
-        <v>0.1204490199218367</v>
+        <v>0.1388442297892078</v>
       </c>
       <c r="T3">
-        <v>0.1204490199218367</v>
+        <v>0.1388442297892078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55096429074825</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H4">
-        <v>1.55096429074825</v>
+        <v>6.135341</v>
       </c>
       <c r="I4">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J4">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.3040135664722</v>
+        <v>13.75539366666667</v>
       </c>
       <c r="N4">
-        <v>13.3040135664722</v>
+        <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="P4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="Q4">
-        <v>20.63404996522865</v>
+        <v>28.13134357808012</v>
       </c>
       <c r="R4">
-        <v>20.63404996522865</v>
+        <v>253.182092202721</v>
       </c>
       <c r="S4">
-        <v>0.1612146110609512</v>
+        <v>0.1887584983439581</v>
       </c>
       <c r="T4">
-        <v>0.1612146110609512</v>
+        <v>0.1887584983439581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.86887429673694</v>
+        <v>1.870396</v>
       </c>
       <c r="H5">
-        <v>1.86887429673694</v>
+        <v>5.611188</v>
       </c>
       <c r="I5">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J5">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51624470470014</v>
+        <v>2.418393</v>
       </c>
       <c r="N5">
-        <v>1.51624470470014</v>
+        <v>7.255179</v>
       </c>
       <c r="O5">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="P5">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="Q5">
-        <v>2.833670756177583</v>
+        <v>4.523352593628</v>
       </c>
       <c r="R5">
-        <v>2.833670756177583</v>
+        <v>40.71017334265201</v>
       </c>
       <c r="S5">
-        <v>0.02213957655437413</v>
+        <v>0.03035124293596716</v>
       </c>
       <c r="T5">
-        <v>0.02213957655437413</v>
+        <v>0.03035124293596716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.86887429673694</v>
+        <v>1.870396</v>
       </c>
       <c r="H6">
-        <v>1.86887429673694</v>
+        <v>5.611188</v>
       </c>
       <c r="I6">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J6">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.939889347266099</v>
+        <v>10.11799233333333</v>
       </c>
       <c r="N6">
-        <v>9.939889347266099</v>
+        <v>30.353977</v>
       </c>
       <c r="O6">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="P6">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="Q6">
-        <v>18.57640371351494</v>
+        <v>18.92465238829734</v>
       </c>
       <c r="R6">
-        <v>18.57640371351494</v>
+        <v>170.321871494676</v>
       </c>
       <c r="S6">
-        <v>0.145138143245372</v>
+        <v>0.126982522416023</v>
       </c>
       <c r="T6">
-        <v>0.145138143245372</v>
+        <v>0.1269825224160231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.86887429673694</v>
+        <v>1.870396</v>
       </c>
       <c r="H7">
-        <v>1.86887429673694</v>
+        <v>5.611188</v>
       </c>
       <c r="I7">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J7">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.3040135664722</v>
+        <v>13.75539366666667</v>
       </c>
       <c r="N7">
-        <v>13.3040135664722</v>
+        <v>41.266181</v>
       </c>
       <c r="O7">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="P7">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="Q7">
-        <v>24.86352899781944</v>
+        <v>25.72803329255867</v>
       </c>
       <c r="R7">
-        <v>24.86352899781944</v>
+        <v>231.552299633028</v>
       </c>
       <c r="S7">
-        <v>0.1942596903536055</v>
+        <v>0.1726325269949359</v>
       </c>
       <c r="T7">
-        <v>0.1942596903536055</v>
+        <v>0.1726325269949359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.74940322332556</v>
+        <v>1.752936</v>
       </c>
       <c r="H8">
-        <v>1.74940322332556</v>
+        <v>5.258808</v>
       </c>
       <c r="I8">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="J8">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.51624470470014</v>
+        <v>2.418393</v>
       </c>
       <c r="N8">
-        <v>1.51624470470014</v>
+        <v>7.255179</v>
       </c>
       <c r="O8">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="P8">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="Q8">
-        <v>2.652523373752737</v>
+        <v>4.239288151848</v>
       </c>
       <c r="R8">
-        <v>2.652523373752737</v>
+        <v>38.153593366632</v>
       </c>
       <c r="S8">
-        <v>0.02072426521939416</v>
+        <v>0.02844519897775793</v>
       </c>
       <c r="T8">
-        <v>0.02072426521939416</v>
+        <v>0.02844519897775793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.74940322332556</v>
+        <v>1.752936</v>
       </c>
       <c r="H9">
-        <v>1.74940322332556</v>
+        <v>5.258808</v>
       </c>
       <c r="I9">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="J9">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.939889347266099</v>
+        <v>10.11799233333333</v>
       </c>
       <c r="N9">
-        <v>9.939889347266099</v>
+        <v>30.353977</v>
       </c>
       <c r="O9">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="P9">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="Q9">
-        <v>17.38887446360671</v>
+        <v>17.736193008824</v>
       </c>
       <c r="R9">
-        <v>17.38887446360671</v>
+        <v>159.625737079416</v>
       </c>
       <c r="S9">
-        <v>0.1358599324011571</v>
+        <v>0.1190080789917503</v>
       </c>
       <c r="T9">
-        <v>0.1358599324011571</v>
+        <v>0.1190080789917503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.74940322332556</v>
+        <v>1.752936</v>
       </c>
       <c r="H10">
-        <v>1.74940322332556</v>
+        <v>5.258808</v>
       </c>
       <c r="I10">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="J10">
-        <v>0.3384254959144931</v>
+        <v>0.3092445624570686</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.3040135664722</v>
+        <v>13.75539366666667</v>
       </c>
       <c r="N10">
-        <v>13.3040135664722</v>
+        <v>41.266181</v>
       </c>
       <c r="O10">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="P10">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="Q10">
-        <v>23.27408421635345</v>
+        <v>24.112324752472</v>
       </c>
       <c r="R10">
-        <v>23.27408421635345</v>
+        <v>217.010922772248</v>
       </c>
       <c r="S10">
-        <v>0.1818412982939419</v>
+        <v>0.1617912844875604</v>
       </c>
       <c r="T10">
-        <v>0.1818412982939419</v>
+        <v>0.1617912844875604</v>
       </c>
     </row>
   </sheetData>
